--- a/考勤.xlsx
+++ b/考勤.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw6-\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E0460-217F-44FD-B207-3797F036EE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81BA86D-1E2B-4437-AA90-8C8AA44EFB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18435" yWindow="1620" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="86">
   <si>
     <t>考勤时间：2021年5月</t>
   </si>
@@ -96,9 +96,6 @@
 +3.5</t>
   </si>
   <si>
-    <t>2021年6月1日调至前期办公室</t>
-  </si>
-  <si>
     <t>G+2</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>2021年5月31日回到公司</t>
   </si>
   <si>
     <t>2021年4月25日借调肇庆项目</t>
@@ -552,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,33 +664,48 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -712,20 +721,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -733,6 +739,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -740,30 +749,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1980,10 +1965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1993,60 +1978,58 @@
     <col min="3" max="3" width="4.25" customWidth="1"/>
     <col min="4" max="33" width="4.25" style="1" customWidth="1"/>
     <col min="35" max="35" width="10.25" customWidth="1"/>
-    <col min="36" max="36" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="39"/>
+    <row r="1" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
     </row>
-    <row r="2" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+    <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2064,26 +2047,25 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
-      <c r="Z2" s="55" t="s">
+      <c r="Z2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
     </row>
-    <row r="3" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>70</v>
+      <c r="B3" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -2178,17 +2160,16 @@
       <c r="AG3" s="33">
         <v>31</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AH3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="52" t="s">
+      <c r="AI3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="AJ3" s="42"/>
     </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
+    <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2282,16 +2263,15 @@
       <c r="AG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="42"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
     </row>
-    <row r="5" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>71</v>
+      <c r="B5" s="45" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>11</v>
@@ -2386,16 +2366,15 @@
       <c r="AG5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="44"/>
-      <c r="AJ5" s="45"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>72</v>
+      <c r="B6" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>12</v>
@@ -2490,16 +2469,15 @@
       <c r="AG6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="45"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="43"/>
     </row>
-    <row r="7" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>73</v>
+      <c r="B7" s="45" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>13</v>
@@ -2595,15 +2573,14 @@
         <v>11</v>
       </c>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="45"/>
+      <c r="AI7" s="40"/>
     </row>
-    <row r="8" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>74</v>
+      <c r="B8" s="45" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>12</v>
@@ -2698,16 +2675,15 @@
       <c r="AG8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="45"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
     </row>
-    <row r="9" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>75</v>
+      <c r="B9" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>12</v>
@@ -2803,15 +2779,14 @@
         <v>11</v>
       </c>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="46"/>
-      <c r="AJ9" s="45"/>
+      <c r="AI9" s="43"/>
     </row>
-    <row r="10" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
-        <v>76</v>
+      <c r="B10" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>12</v>
@@ -2907,15 +2882,14 @@
         <v>11</v>
       </c>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="46"/>
-      <c r="AJ10" s="45"/>
+      <c r="AI10" s="43"/>
     </row>
-    <row r="11" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>77</v>
+      <c r="B11" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>12</v>
@@ -3011,17 +2985,14 @@
         <v>11</v>
       </c>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ11" s="45"/>
+      <c r="AI11" s="44"/>
     </row>
-    <row r="12" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>78</v>
+      <c r="B12" s="45" t="s">
+        <v>76</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>12</v>
@@ -3048,44 +3019,44 @@
         <v>11</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>25</v>
-      </c>
       <c r="X12" s="29" t="s">
         <v>12</v>
       </c>
@@ -3117,15 +3088,14 @@
         <v>11</v>
       </c>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="45"/>
+      <c r="AI12" s="40"/>
     </row>
-    <row r="13" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>79</v>
+      <c r="B13" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>11</v>
@@ -3215,339 +3185,333 @@
         <v>18</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="45"/>
+      <c r="AI13" s="40"/>
     </row>
-    <row r="14" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="44"/>
+    </row>
+    <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="47" t="s">
+      <c r="C16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="AJ14" s="45"/>
     </row>
-    <row r="15" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
-        <v>11</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ15" s="45"/>
-    </row>
-    <row r="16" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
-        <v>12</v>
-      </c>
-      <c r="B16" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="V16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="W16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG16" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ16" s="45"/>
-    </row>
-    <row r="17" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>83</v>
+      <c r="B17" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>12</v>
@@ -3565,31 +3529,31 @@
         <v>12</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>12</v>
@@ -3598,19 +3562,19 @@
         <v>12</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>12</v>
@@ -3619,19 +3583,19 @@
         <v>12</v>
       </c>
       <c r="Z17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE17" s="29" t="s">
         <v>12</v>
@@ -3640,17 +3604,16 @@
         <v>12</v>
       </c>
       <c r="AG17" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ17" s="45"/>
+      <c r="AI17" s="40" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -3686,7 +3649,7 @@
       <c r="AH18" s="31"/>
       <c r="AI18" s="31"/>
     </row>
-    <row r="19" spans="1:36" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -3722,138 +3685,135 @@
       <c r="AH19" s="31"/>
       <c r="AI19" s="31"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A20" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A21" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A22" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A21" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
-      <c r="AJ22" s="49"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="A20:AJ20"/>
-    <mergeCell ref="A21:AJ21"/>
-    <mergeCell ref="A22:AJ22"/>
+    <mergeCell ref="A22:AI22"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="A20:AI20"/>
+    <mergeCell ref="A21:AI21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3892,58 +3852,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
     </row>
     <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3956,225 +3916,225 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="61" t="s">
+      <c r="W2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
     </row>
     <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="I3" s="59"/>
+      <c r="J3" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63" t="s">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63" t="s">
+      <c r="R3" s="59"/>
+      <c r="S3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63" t="s">
+      <c r="T3" s="59"/>
+      <c r="U3" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63" t="s">
+      <c r="V3" s="59"/>
+      <c r="W3" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63" t="s">
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63" t="s">
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63" t="s">
+      <c r="AF3" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AG3" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="63" t="s">
+      <c r="AH3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="AG3" s="63" t="s">
+      <c r="AI3" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="63" t="s">
+      <c r="AJ3" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="63" t="s">
+      <c r="AK3" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" s="63" t="s">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="AK3" s="64" t="s">
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="63"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="K4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="M4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="X4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" s="14" t="s">
+      <c r="Y4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AP4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AD4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5241,7 +5201,7 @@
     </row>
     <row r="18" spans="1:47" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5284,11 +5244,7 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="AN3:AP3"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
@@ -5305,10 +5261,14 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/考勤.xlsx
+++ b/考勤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw6-\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81BA86D-1E2B-4437-AA90-8C8AA44EFB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F7CC2E-5DD2-4732-9421-2A076706A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18435" yWindow="1620" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
     <t>√+6</t>
   </si>
   <si>
-    <t>√
-+3.5</t>
-  </si>
-  <si>
     <t>G+2</t>
   </si>
   <si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>XX公司员工考勤汇总表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>√+3.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -452,6 +452,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -661,9 +668,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -685,6 +689,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,50 +725,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1967,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1981,55 +1988,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
+      <c r="A1" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
     </row>
     <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2047,25 +2054,25 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>68</v>
+      <c r="B3" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -2160,16 +2167,16 @@
       <c r="AG3" s="33">
         <v>31</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AH3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="57" t="s">
+      <c r="AI3" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2263,15 +2270,15 @@
       <c r="AG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
     </row>
     <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>69</v>
+      <c r="B5" s="44" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>11</v>
@@ -2366,15 +2373,15 @@
       <c r="AG5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="42"/>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="41"/>
     </row>
     <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>70</v>
+      <c r="B6" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>12</v>
@@ -2469,15 +2476,15 @@
       <c r="AG6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="43"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="42"/>
     </row>
     <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>71</v>
+      <c r="B7" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>13</v>
@@ -2573,14 +2580,14 @@
         <v>11</v>
       </c>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="40"/>
+      <c r="AI7" s="39"/>
     </row>
     <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>72</v>
+      <c r="B8" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>12</v>
@@ -2675,15 +2682,15 @@
       <c r="AG8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
     </row>
     <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="45" t="s">
-        <v>73</v>
+      <c r="B9" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>12</v>
@@ -2779,14 +2786,14 @@
         <v>11</v>
       </c>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="43"/>
+      <c r="AI9" s="42"/>
     </row>
     <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="s">
-        <v>74</v>
+      <c r="B10" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>12</v>
@@ -2860,8 +2867,8 @@
       <c r="Z10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="38" t="s">
-        <v>22</v>
+      <c r="AA10" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="AB10" s="30" t="s">
         <v>11</v>
@@ -2882,14 +2889,14 @@
         <v>11</v>
       </c>
       <c r="AH10" s="5"/>
-      <c r="AI10" s="43"/>
+      <c r="AI10" s="42"/>
     </row>
     <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>75</v>
+      <c r="B11" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>12</v>
@@ -2985,14 +2992,14 @@
         <v>11</v>
       </c>
       <c r="AH11" s="5"/>
-      <c r="AI11" s="44"/>
+      <c r="AI11" s="43"/>
     </row>
     <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>76</v>
+      <c r="B12" s="44" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>12</v>
@@ -3019,44 +3026,44 @@
         <v>11</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>24</v>
-      </c>
       <c r="X12" s="29" t="s">
         <v>12</v>
       </c>
@@ -3088,14 +3095,14 @@
         <v>11</v>
       </c>
       <c r="AH12" s="5"/>
-      <c r="AI12" s="40"/>
+      <c r="AI12" s="39"/>
     </row>
     <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>77</v>
+      <c r="B13" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>11</v>
@@ -3185,20 +3192,20 @@
         <v>18</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="AH13" s="5"/>
-      <c r="AI13" s="40"/>
+      <c r="AI13" s="39"/>
     </row>
     <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="B14" s="45" t="s">
-        <v>78</v>
+      <c r="B14" s="44" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>12</v>
@@ -3216,31 +3223,31 @@
         <v>12</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="29" t="s">
         <v>12</v>
@@ -3249,19 +3256,19 @@
         <v>12</v>
       </c>
       <c r="S14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X14" s="29" t="s">
         <v>12</v>
@@ -3270,19 +3277,19 @@
         <v>12</v>
       </c>
       <c r="Z14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE14" s="29" t="s">
         <v>12</v>
@@ -3294,14 +3301,14 @@
         <v>11</v>
       </c>
       <c r="AH14" s="5"/>
-      <c r="AI14" s="44"/>
+      <c r="AI14" s="43"/>
     </row>
     <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>79</v>
+      <c r="B15" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>12</v>
@@ -3319,94 +3326,94 @@
         <v>12</v>
       </c>
       <c r="H15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="39" t="s">
         <v>25</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="V15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="X15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="40" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>80</v>
+      <c r="B16" s="44" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>12</v>
@@ -3424,31 +3431,31 @@
         <v>12</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="29" t="s">
         <v>12</v>
@@ -3457,19 +3464,19 @@
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X16" s="29" t="s">
         <v>12</v>
@@ -3478,19 +3485,19 @@
         <v>12</v>
       </c>
       <c r="Z16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE16" s="29" t="s">
         <v>12</v>
@@ -3499,19 +3506,19 @@
         <v>12</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH16" s="5"/>
-      <c r="AI16" s="40" t="s">
-        <v>27</v>
+      <c r="AI16" s="39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>81</v>
+      <c r="B17" s="44" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>12</v>
@@ -3529,31 +3536,31 @@
         <v>12</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>12</v>
@@ -3562,19 +3569,19 @@
         <v>12</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>12</v>
@@ -3583,19 +3590,19 @@
         <v>12</v>
       </c>
       <c r="Z17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" s="29" t="s">
         <v>12</v>
@@ -3604,16 +3611,16 @@
         <v>12</v>
       </c>
       <c r="AG17" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH17" s="5"/>
-      <c r="AI17" s="40" t="s">
-        <v>27</v>
+      <c r="AI17" s="39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -3686,134 +3693,134 @@
       <c r="AI19" s="31"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="52"/>
-      <c r="AI20" s="52"/>
+      <c r="A20" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
+      <c r="A21" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54"/>
-      <c r="AA22" s="54"/>
-      <c r="AB22" s="54"/>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
+      <c r="A22" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="A20:AI20"/>
+    <mergeCell ref="A21:AI21"/>
     <mergeCell ref="A22:AI22"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="A20:AI20"/>
-    <mergeCell ref="A21:AI21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3852,58 +3859,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
+      <c r="A1" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
     </row>
     <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="A2" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3916,225 +3923,225 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
     </row>
     <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59" t="s">
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59" t="s">
+      <c r="T3" s="57"/>
+      <c r="U3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59" t="s">
+      <c r="V3" s="57"/>
+      <c r="W3" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59" t="s">
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59" t="s">
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59" t="s">
+      <c r="AF3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AF3" s="59" t="s">
+      <c r="AG3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="59" t="s">
+      <c r="AH3" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AI3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AI3" s="59" t="s">
+      <c r="AJ3" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AJ3" s="59" t="s">
+      <c r="AK3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AK3" s="60" t="s">
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="59" t="s">
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="57"/>
+      <c r="AQ3" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" s="14" t="s">
+      <c r="AO4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AP4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5201,7 +5208,7 @@
     </row>
     <row r="18" spans="1:47" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5244,11 +5251,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="W2:AJ2"/>
@@ -5265,6 +5267,11 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AM3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:Z3"/>

--- a/考勤.xlsx
+++ b/考勤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw6-\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F7CC2E-5DD2-4732-9421-2A076706A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171BA292-8C86-4B4F-B755-D383097561C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1620" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="90">
   <si>
     <t>考勤时间：2021年5月</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>√/夜</t>
   </si>
   <si>
     <t>C</t>
@@ -301,6 +298,26 @@
   </si>
   <si>
     <t>√+3.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>√+夜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>√/△</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +706,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -728,6 +754,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -751,12 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1974,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1988,55 +2011,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
+      <c r="A1" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
     </row>
     <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2054,13 +2077,13 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Z2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
@@ -2068,11 +2091,11 @@
       <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>67</v>
+      <c r="B3" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="25">
         <v>1</v>
@@ -2167,16 +2190,16 @@
       <c r="AG3" s="33">
         <v>31</v>
       </c>
-      <c r="AH3" s="49" t="s">
+      <c r="AH3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="49" t="s">
+      <c r="AI3" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
@@ -2270,15 +2293,15 @@
       <c r="AG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
     </row>
     <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>11</v>
@@ -2304,23 +2327,23 @@
       <c r="J5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>11</v>
+      <c r="K5" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="O5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="30" t="s">
-        <v>11</v>
+      <c r="P5" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>11</v>
@@ -2328,32 +2351,32 @@
       <c r="R5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="30" t="s">
+      <c r="S5" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA5" s="30" t="s">
-        <v>14</v>
       </c>
       <c r="AB5" s="30" t="s">
         <v>11</v>
@@ -2381,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>12</v>
@@ -2432,19 +2455,19 @@
         <v>12</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X6" s="29" t="s">
         <v>12</v>
@@ -2453,19 +2476,19 @@
         <v>12</v>
       </c>
       <c r="Z6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="29" t="s">
         <v>12</v>
@@ -2484,13 +2507,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>13</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>12</v>
@@ -2523,49 +2546,49 @@
         <v>11</v>
       </c>
       <c r="O7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="V7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="U7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" s="30" t="s">
-        <v>17</v>
-      </c>
       <c r="AC7" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD7" s="30" t="s">
         <v>11</v>
@@ -2587,7 +2610,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>12</v>
@@ -2620,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" s="30" t="s">
         <v>11</v>
@@ -2641,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="T8" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U8" s="30" t="s">
         <v>11</v>
@@ -2650,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="W8" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X8" s="29" t="s">
         <v>11</v>
@@ -2690,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>12</v>
@@ -2793,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>12</v>
@@ -2811,32 +2834,32 @@
         <v>12</v>
       </c>
       <c r="H10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="30" t="s">
+      <c r="P10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="30" t="s">
-        <v>18</v>
-      </c>
       <c r="Q10" s="29" t="s">
         <v>11</v>
       </c>
@@ -2844,19 +2867,19 @@
         <v>12</v>
       </c>
       <c r="S10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W10" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X10" s="29" t="s">
         <v>12</v>
@@ -2865,10 +2888,10 @@
         <v>11</v>
       </c>
       <c r="Z10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="67" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="AA10" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="AB10" s="30" t="s">
         <v>11</v>
@@ -2896,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>12</v>
@@ -2929,16 +2952,16 @@
         <v>11</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="29" t="s">
         <v>12</v>
@@ -2999,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>12</v>
@@ -3017,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>11</v>
@@ -3026,43 +3049,43 @@
         <v>11</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="X12" s="29" t="s">
         <v>12</v>
@@ -3102,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>11</v>
@@ -3135,16 +3158,16 @@
         <v>11</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O13" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P13" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="29" t="s">
         <v>12</v>
@@ -3177,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="AA13" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB13" s="30" t="s">
         <v>11</v>
@@ -3189,10 +3212,10 @@
         <v>11</v>
       </c>
       <c r="AE13" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF13" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG13" s="30" t="s">
         <v>11</v>
@@ -3205,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>12</v>
@@ -3223,31 +3246,31 @@
         <v>12</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="29" t="s">
         <v>12</v>
@@ -3256,19 +3279,19 @@
         <v>12</v>
       </c>
       <c r="S14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X14" s="29" t="s">
         <v>12</v>
@@ -3277,19 +3300,19 @@
         <v>12</v>
       </c>
       <c r="Z14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD14" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE14" s="29" t="s">
         <v>12</v>
@@ -3308,7 +3331,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>12</v>
@@ -3326,31 +3349,31 @@
         <v>12</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="29" t="s">
         <v>12</v>
@@ -3359,19 +3382,19 @@
         <v>12</v>
       </c>
       <c r="S15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X15" s="29" t="s">
         <v>12</v>
@@ -3380,19 +3403,19 @@
         <v>12</v>
       </c>
       <c r="Z15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE15" s="29" t="s">
         <v>12</v>
@@ -3401,11 +3424,11 @@
         <v>12</v>
       </c>
       <c r="AG15" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH15" s="5"/>
       <c r="AI15" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3413,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>12</v>
@@ -3431,31 +3454,31 @@
         <v>12</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="29" t="s">
         <v>12</v>
@@ -3464,19 +3487,19 @@
         <v>12</v>
       </c>
       <c r="S16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X16" s="29" t="s">
         <v>12</v>
@@ -3485,19 +3508,19 @@
         <v>12</v>
       </c>
       <c r="Z16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE16" s="29" t="s">
         <v>12</v>
@@ -3506,11 +3529,11 @@
         <v>12</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -3518,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>12</v>
@@ -3536,31 +3559,31 @@
         <v>12</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="29" t="s">
         <v>12</v>
@@ -3569,19 +3592,19 @@
         <v>12</v>
       </c>
       <c r="S17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="W17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>12</v>
@@ -3590,19 +3613,19 @@
         <v>12</v>
       </c>
       <c r="Z17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE17" s="29" t="s">
         <v>12</v>
@@ -3611,16 +3634,16 @@
         <v>12</v>
       </c>
       <c r="AG17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" s="5"/>
       <c r="AI17" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
@@ -3693,121 +3716,121 @@
       <c r="AI19" s="31"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
+      <c r="A20" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
+      <c r="A21" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="46"/>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
-      <c r="AD22" s="46"/>
-      <c r="AE22" s="46"/>
-      <c r="AF22" s="46"/>
-      <c r="AG22" s="46"/>
-      <c r="AH22" s="46"/>
-      <c r="AI22" s="46"/>
+      <c r="A22" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3836,7 +3859,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomLeft" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3859,58 +3882,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
+      <c r="A1" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
     </row>
     <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="A2" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3923,225 +3946,225 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
     </row>
     <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="D3" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57" t="s">
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57" t="s">
+      <c r="T3" s="60"/>
+      <c r="U3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57" t="s">
+      <c r="V3" s="60"/>
+      <c r="W3" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57" t="s">
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57" t="s">
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AF3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AF3" s="57" t="s">
+      <c r="AG3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="AG3" s="57" t="s">
+      <c r="AH3" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="AH3" s="57" t="s">
+      <c r="AI3" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="AI3" s="57" t="s">
+      <c r="AJ3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="AJ3" s="57" t="s">
+      <c r="AK3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="AK3" s="66" t="s">
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="57" t="s">
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="14" t="s">
+      <c r="AO4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AP4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5208,7 +5231,7 @@
     </row>
     <row r="18" spans="1:47" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>

--- a/考勤.xlsx
+++ b/考勤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw6-\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171BA292-8C86-4B4F-B755-D383097561C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05F9A2-3722-4E61-8EA2-F0165D9FF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +715,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -730,56 +751,47 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1998,68 +2010,68 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="4.25" customWidth="1"/>
-    <col min="4" max="33" width="4.25" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" customWidth="1"/>
+    <col min="4" max="33" width="4.26953125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:35" ht="23" x14ac:dyDescent="0.4">
+      <c r="A1" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
     </row>
-    <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2077,27 +2089,27 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
-      <c r="Z2" s="57" t="s">
+      <c r="Z2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
       <c r="AH2" s="38"/>
       <c r="AI2" s="38"/>
     </row>
-    <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="70">
         <v>1</v>
       </c>
       <c r="D3" s="25">
@@ -2190,17 +2202,17 @@
       <c r="AG3" s="33">
         <v>31</v>
       </c>
-      <c r="AH3" s="52" t="s">
+      <c r="AH3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="52" t="s">
+      <c r="AI3" s="59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="27" t="s">
+    <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="71" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -2293,17 +2305,17 @@
       <c r="AG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
     </row>
-    <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -2399,14 +2411,14 @@
       <c r="AH5" s="40"/>
       <c r="AI5" s="41"/>
     </row>
-    <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -2502,14 +2514,14 @@
       <c r="AH6" s="40"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="73" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -2605,14 +2617,14 @@
       <c r="AH7" s="5"/>
       <c r="AI7" s="39"/>
     </row>
-    <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -2708,14 +2720,14 @@
       <c r="AH8" s="42"/>
       <c r="AI8" s="42"/>
     </row>
-    <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2811,14 +2823,14 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -2914,14 +2926,14 @@
       <c r="AH10" s="5"/>
       <c r="AI10" s="42"/>
     </row>
-    <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -3017,14 +3029,14 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="43"/>
     </row>
-    <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -3120,14 +3132,14 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="39"/>
     </row>
-    <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="72" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -3223,14 +3235,14 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="39"/>
     </row>
-    <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -3326,14 +3338,14 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="43"/>
     </row>
-    <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -3431,14 +3443,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -3536,14 +3548,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="29" t="s">
@@ -3641,7 +3653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>26</v>
       </c>
@@ -3679,7 +3691,7 @@
       <c r="AH18" s="31"/>
       <c r="AI18" s="31"/>
     </row>
-    <row r="19" spans="1:35" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="2" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
@@ -3715,135 +3727,135 @@
       <c r="AH19" s="31"/>
       <c r="AI19" s="31"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="s">
+    <row r="20" spans="1:35" ht="14" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:35" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:35" ht="14" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-      <c r="AH22" s="49"/>
-      <c r="AI22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:AI22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="Z2:AD2"/>
     <mergeCell ref="A20:AI20"/>
     <mergeCell ref="A21:AI21"/>
-    <mergeCell ref="A22:AI22"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3862,78 +3874,78 @@
       <selection pane="bottomLeft" activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="29" width="3.125" customWidth="1"/>
-    <col min="30" max="30" width="3.125" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="3.125" customWidth="1"/>
-    <col min="34" max="34" width="5.25" customWidth="1"/>
-    <col min="35" max="35" width="4.5" customWidth="1"/>
-    <col min="36" max="36" width="4.75" customWidth="1"/>
-    <col min="37" max="37" width="2.625" customWidth="1"/>
+    <col min="4" max="29" width="3.08984375" customWidth="1"/>
+    <col min="30" max="30" width="3.08984375" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="3.08984375" customWidth="1"/>
+    <col min="34" max="34" width="5.26953125" customWidth="1"/>
+    <col min="35" max="35" width="4.453125" customWidth="1"/>
+    <col min="36" max="36" width="4.7265625" customWidth="1"/>
+    <col min="37" max="37" width="2.6328125" customWidth="1"/>
     <col min="38" max="39" width="3" customWidth="1"/>
-    <col min="40" max="40" width="2.875" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="2.75" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="2.875" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="5.375" customWidth="1"/>
+    <col min="40" max="40" width="2.90625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="2.7265625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="2.90625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="5.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:43" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
     </row>
-    <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3946,118 +3958,118 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="67" t="s">
+      <c r="W2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
     </row>
-    <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60" t="s">
+      <c r="G3" s="67"/>
+      <c r="H3" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60" t="s">
+      <c r="N3" s="67"/>
+      <c r="O3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60" t="s">
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60" t="s">
+      <c r="R3" s="67"/>
+      <c r="S3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60" t="s">
+      <c r="V3" s="67"/>
+      <c r="W3" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60" t="s">
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60" t="s">
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="60" t="s">
+      <c r="AF3" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="60" t="s">
+      <c r="AG3" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="60" t="s">
+      <c r="AH3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" s="60" t="s">
+      <c r="AI3" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="60" t="s">
+      <c r="AJ3" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="61" t="s">
+      <c r="AK3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="60" t="s">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
       <c r="AQ3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="60"/>
+    <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
@@ -4139,12 +4151,12 @@
       <c r="AD4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
       <c r="AK4" s="20" t="s">
         <v>60</v>
       </c>
@@ -4167,7 +4179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="6" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -4421,7 +4433,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="8" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -4671,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -4751,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -4924,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -5004,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -5076,7 +5088,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -5148,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:47" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:47" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
@@ -5274,6 +5286,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="W2:AJ2"/>
@@ -5290,15 +5311,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/考勤.xlsx
+++ b/考勤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxw6-\learngit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05F9A2-3722-4E61-8EA2-F0165D9FF6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892568B1-89E9-4238-887B-0B90364CB4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8600" yWindow="3740" windowWidth="25800" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="考勤表" sheetId="1" r:id="rId1"/>
@@ -715,6 +715,33 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,20 +763,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -773,25 +791,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2009,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2023,55 +2023,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
     </row>
     <row r="2" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -2089,13 +2089,13 @@
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
       <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
       <c r="AG2" s="37"/>
@@ -2103,13 +2103,13 @@
       <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="48">
         <v>1</v>
       </c>
       <c r="D3" s="25">
@@ -2202,17 +2202,17 @@
       <c r="AG3" s="33">
         <v>31</v>
       </c>
-      <c r="AH3" s="59" t="s">
+      <c r="AH3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="AI3" s="59" t="s">
+      <c r="AI3" s="56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="71" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="49" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -2305,8 +2305,8 @@
       <c r="AG4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
     </row>
     <row r="5" spans="1:35" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -2315,11 +2315,11 @@
       <c r="B5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>11</v>
+      <c r="C5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>12</v>
@@ -2418,7 +2418,7 @@
       <c r="B6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -2521,7 +2521,7 @@
       <c r="B7" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="46" t="s">
@@ -2624,7 +2624,7 @@
       <c r="B8" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="29" t="s">
@@ -2727,7 +2727,7 @@
       <c r="B9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -2830,7 +2830,7 @@
       <c r="B10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -2933,7 +2933,7 @@
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -3036,7 +3036,7 @@
       <c r="B12" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -3139,7 +3139,7 @@
       <c r="B13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -3242,7 +3242,7 @@
       <c r="B14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="29" t="s">
@@ -3345,7 +3345,7 @@
       <c r="B15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="29" t="s">
@@ -3450,7 +3450,7 @@
       <c r="B16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="29" t="s">
@@ -3555,7 +3555,7 @@
       <c r="B17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="29" t="s">
@@ -3728,134 +3728,134 @@
       <c r="AI19" s="31"/>
     </row>
     <row r="20" spans="1:35" ht="14" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" ht="14" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" ht="14" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="53"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="A20:AI20"/>
+    <mergeCell ref="A21:AI21"/>
     <mergeCell ref="A22:AI22"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="A20:AI20"/>
-    <mergeCell ref="A21:AI21"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3894,58 +3894,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
     </row>
     <row r="2" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -3958,118 +3958,118 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
-      <c r="W2" s="65" t="s">
+      <c r="W2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
     </row>
     <row r="3" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67" t="s">
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67" t="s">
+      <c r="R3" s="64"/>
+      <c r="S3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67" t="s">
+      <c r="T3" s="64"/>
+      <c r="U3" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67" t="s">
+      <c r="V3" s="64"/>
+      <c r="W3" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67" t="s">
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="AF3" s="67" t="s">
+      <c r="AF3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="67" t="s">
+      <c r="AG3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="AH3" s="67" t="s">
+      <c r="AH3" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="AI3" s="67" t="s">
+      <c r="AI3" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="67" t="s">
+      <c r="AJ3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="AK3" s="69" t="s">
+      <c r="AK3" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="67" t="s">
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
       <c r="AQ3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
@@ -4151,12 +4151,12 @@
       <c r="AD4" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
       <c r="AK4" s="20" t="s">
         <v>60</v>
       </c>
@@ -5286,15 +5286,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="W2:AJ2"/>
@@ -5311,6 +5302,15 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
